--- a/GsEPWv8-5-MVC/RptTemplates/IB_INBOUND_TALLYSHEET.xlsx
+++ b/GsEPWv8-5-MVC/RptTemplates/IB_INBOUND_TALLYSHEET.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROD-SOURCE\GsEPWv8-4-MVC\GsEPWv8-4-MVC\GsEPWv8-4-MVC\RptTemplates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROD-SOURCE\GsEPWv8-5-MVC-COMBO_V1\GsEPWv8-5-MVC-COMBO\GsEPWv8-5-MVC\RptTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,6 +28,7 @@
     <definedName name="__DATA_pcs">Template!$N$1</definedName>
     <definedName name="__DATA_po_num">Template!$K$1</definedName>
     <definedName name="__DATA_rptCUBE">Template!$H$1</definedName>
+    <definedName name="__DATA_serial">Template!$P$1</definedName>
     <definedName name="__DATA_tot_ctn">Template!$L$1</definedName>
     <definedName name="__DATA_wgt">Template!$I$1</definedName>
     <definedName name="__DATA_width">Template!$F$1</definedName>
@@ -37,8 +38,9 @@
     <definedName name="__HDATA_ib_doc_dt">SHT_IB_TALLYSHEET!$F$2</definedName>
     <definedName name="__HDATA_ib_doc_id">SHT_IB_TALLYSHEET!$C$2</definedName>
     <definedName name="__HDATA_palet_dt">SHT_IB_TALLYSHEET!$K$2</definedName>
+    <definedName name="__HDATA_Serial">SHT_IB_TALLYSHEET!$P$2</definedName>
     <definedName name="__HDATA_whs_id">SHT_IB_TALLYSHEET!$N$2</definedName>
-    <definedName name="__TEMPLATE_Data">Template!$A$1:$O$1</definedName>
+    <definedName name="__TEMPLATE_Data">Template!$A$1:$P$1</definedName>
     <definedName name="__TEMPLATE_DataLine">SHT_IB_TALLYSHEET!$A$5</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -51,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Color</t>
   </si>
@@ -143,6 +145,12 @@
   <si>
     <t>INBOUND TALLYSHEET - REPORT</t>
   </si>
+  <si>
+    <t>Serial Numbers</t>
+  </si>
+  <si>
+    <t>Serial</t>
+  </si>
 </sst>
 </file>
 
@@ -153,7 +161,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.00_);\(0.00\)"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,13 +193,6 @@
       <b/>
       <sz val="16"/>
       <color rgb="FF0000CC"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -261,7 +262,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -321,6 +322,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -329,7 +339,7 @@
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -341,85 +351,85 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="39" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="39" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -711,7 +721,7 @@
   <dimension ref="A1:AW36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:O1"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -730,7 +740,7 @@
     <col min="12" max="13" width="13.85546875" customWidth="1"/>
     <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="19" customWidth="1"/>
-    <col min="16" max="16" width="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="40.85546875" customWidth="1"/>
     <col min="17" max="17" width="11.85546875" style="3" customWidth="1"/>
     <col min="18" max="18" width="11.5703125" style="3" customWidth="1"/>
     <col min="20" max="20" width="8.85546875" style="4"/>
@@ -740,85 +750,88 @@
     <col min="24" max="24" width="10.85546875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:30" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="17"/>
-    </row>
-    <row r="2" spans="1:26" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
+    </row>
+    <row r="2" spans="1:30" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="29" t="s">
+      <c r="B2" s="31"/>
+      <c r="C2" s="30" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="32"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="29" t="s">
+      <c r="E2" s="31"/>
+      <c r="F2" s="30" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="32"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="33" t="s">
+      <c r="H2" s="31"/>
+      <c r="I2" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33" t="s">
+      <c r="J2" s="29"/>
+      <c r="K2" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33" t="s">
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="33"/>
-      <c r="P2" s="19"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
-      <c r="Y2" s="17"/>
-      <c r="Z2" s="17"/>
-    </row>
-    <row r="3" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+      <c r="O2" s="29"/>
+      <c r="P2" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="11"/>
+    </row>
+    <row r="3" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="33" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="34" t="s">
@@ -827,126 +840,151 @@
       <c r="F3" s="34"/>
       <c r="G3" s="34"/>
       <c r="H3" s="34"/>
-      <c r="I3" s="35" t="s">
+      <c r="I3" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="35" t="s">
+      <c r="J3" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="35" t="s">
+      <c r="K3" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="31" t="s">
+      <c r="L3" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="31" t="s">
+      <c r="M3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="N3" s="31" t="s">
+      <c r="N3" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="O3" s="31" t="s">
+      <c r="O3" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
-      <c r="V3" s="17"/>
-      <c r="W3" s="17"/>
-      <c r="X3" s="17"/>
-      <c r="Y3" s="17"/>
-      <c r="Z3" s="17"/>
-    </row>
-    <row r="4" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="25" t="s">
+      <c r="P3" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="11"/>
+    </row>
+    <row r="4" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="33"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="25" t="s">
+      <c r="G4" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="25" t="s">
+      <c r="H4" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="17"/>
-      <c r="V4" s="17"/>
-      <c r="W4" s="17"/>
-      <c r="X4" s="17"/>
-      <c r="Y4" s="17"/>
-      <c r="Z4" s="17"/>
-    </row>
-    <row r="5" spans="1:26" ht="9.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="38"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="11"/>
+      <c r="AB4" s="11"/>
+      <c r="AC4" s="11"/>
+      <c r="AD4" s="11"/>
+    </row>
+    <row r="5" spans="1:30" ht="2.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="26"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
       <c r="S5" s="11"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="14"/>
-      <c r="V5" s="15"/>
-      <c r="W5" s="13"/>
-      <c r="X5" s="13"/>
-      <c r="Y5" s="16"/>
-      <c r="Z5" s="16"/>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="26"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="16"/>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="11"/>
+      <c r="AA5" s="11"/>
+      <c r="AB5" s="11"/>
+      <c r="AC5" s="11"/>
+      <c r="AD5" s="11"/>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A6" s="19"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="11"/>
+      <c r="AC6" s="11"/>
+      <c r="AD6" s="11"/>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="P7" s="1"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
     </row>
@@ -1072,17 +1110,17 @@
       <c r="AH35" s="4"/>
     </row>
     <row r="36" spans="15:34" x14ac:dyDescent="0.25">
-      <c r="O36" s="18"/>
-      <c r="P36" s="18"/>
-      <c r="Q36" s="18"/>
-      <c r="R36" s="18"/>
-      <c r="S36" s="18"/>
-      <c r="T36" s="18"/>
-      <c r="U36" s="18"/>
-      <c r="V36" s="18"/>
-      <c r="W36" s="18"/>
-      <c r="X36" s="18"/>
-      <c r="Y36" s="18"/>
+      <c r="O36" s="12"/>
+      <c r="P36" s="12"/>
+      <c r="Q36" s="12"/>
+      <c r="R36" s="12"/>
+      <c r="S36" s="12"/>
+      <c r="T36" s="12"/>
+      <c r="U36" s="12"/>
+      <c r="V36" s="12"/>
+      <c r="W36" s="12"/>
+      <c r="X36" s="12"/>
+      <c r="Y36" s="12"/>
       <c r="AA36" s="3"/>
       <c r="AB36" s="3"/>
       <c r="AD36" s="4"/>
@@ -1092,27 +1130,28 @@
       <c r="AH36" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A5:O5"/>
+  <mergeCells count="21">
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="I2:J2"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="J3:J4"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="K2:M2"/>
     <mergeCell ref="O3:O4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1123,7 +1162,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1136,12 +1177,12 @@
       <c r="A1" s="7"/>
       <c r="B1" s="7"/>
       <c r="C1" s="8"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="20"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="13"/>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="R4" s="3"/>
@@ -1190,16 +1231,16 @@
       <c r="AC8" s="9"/>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
